--- a/Texts/Город Сокровищ/Все персонажи/Теддиурса.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Теддиурса.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -64,6 +64,99 @@
   </si>
   <si>
     <t xml:space="preserve"> Ÿ òœéóàý, œóï üóï ôçàòîï.[K]\nÖïóåì áú ÿ, œóïáú íú çéìé â íéñå.</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P01A/um0601.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I\'ve heard that the Time Gear of\n[CS:P]Treeshroud Forest[CR] was stolen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Because of that, time has\nstopped in [CS:P]Treeshroud Forest[CR]…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> There\'s been so much horrible\nnews lately. It\'s discouraging.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я слышал, что кто-то украл\nШестерню Времени [CS:P]Заросшего Леса[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Из-за этого, в [CS:P]Заросшем Лесу[CR]\nостановилось время...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> В последнее время происходит\nстолько всего плохого. Это расстраивает.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ òìúšàì, œóï ëóï-óï ôëñàì\nŠåòóåñîý Âñåíåîé [CS:P]Èàñïòšåãï Ìåòà[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Éè-èà üóïãï, â [CS:P]Èàñïòšåí Ìåòô[CR]\nïòóàîïâéìïòû âñåíÿ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Â ðïòìåäîåå âñåíÿ ðñïéòöïäéó\nòóïìûëï âòåãï ðìïöïãï. Üóï ñàòòóñàéâàåó.</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P01A/um0605.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> There\'s been a terrible stench\nlately. Or am I imagining it?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> В последнее время я чувствую\nужасную вонь. Или мне кажется?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Â ðïòìåäîåå âñåíÿ ÿ œôâòóâôý\nôçàòîôý âïîû. Éìé íîå ëàçåóòÿ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I\'ve heard.[K] [CS:N]Wigglytuff[CR]\'s Guild is\ngoing on an expedition soon?</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P01A/um0705.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Good luck with that!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I hope you get picked for\nthe expedition!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я всё слышал.[K] Гильдия\n[CS:N]Виглитаффа[CR] снаряжает экспедицию?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я желаю вам удачи!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Надеюсь, вас возьмут в\nэкспедицию!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ âòæ òìúšàì.[K] Ãéìûäéÿ\n[CS:N]Âéãìéóàõõà[CR] òîàñÿçàåó üëòðåäéøéý?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ çåìàý âàí ôäàœé!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îàäåýòû, âàò âïèûíôó â\nüëòðåäéøéý!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I\'ve heard! You were picked for\nthe expedition!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Congratulations!</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P01A/um0801.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я всё знаю! Вас взяли в\nэкспедицию!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Поздравляю!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ âòæ èîàý! Âàò âèÿìé â\nüëòðåäéøéý!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðïèäñàâìÿý!</t>
   </si>
 </sst>
 </file>
@@ -94,7 +187,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -126,11 +219,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -145,6 +258,18 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -427,10 +552,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -492,17 +617,159 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="B4" s="4">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6">
         <v>320</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="7" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="4">
+        <v>289</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B6" s="4">
+        <v>292</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6">
+        <v>295</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="8">
+        <v>270</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="4">
+        <v>245</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B10" s="4">
+        <v>248</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6">
+        <v>251</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="4">
+        <v>223</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6">
+        <v>226</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Все персонажи/Теддиурса.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Теддиурса.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -157,6 +157,27 @@
   </si>
   <si>
     <t xml:space="preserve"> Ðïèäñàâìÿý!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Welcome back![K] Was the\nexpedition fun?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Oh? You never discovered\nanything?[K] Oh... That\'s too bad.</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P01A/um1103.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> С возвращением![K] Ну, что было\nв экспедиции?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ой? Вы ничего не нашли?[K]\nОх... Очень жаль.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ò âïèâñàþåîéåí![K] Îô, œóï áúìï\nâ üëòðåäéøéé?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ïê? Âú îéœåãï îå îàšìé?[K]\nÏö... Ïœåîû çàìû.</t>
   </si>
 </sst>
 </file>
@@ -552,10 +573,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -772,6 +793,38 @@
         <v>45</v>
       </c>
     </row>
+    <row r="14" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="4">
+        <v>201</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6">
+        <v>204</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Texts/Город Сокровищ/Все персонажи/Теддиурса.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Теддиурса.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -178,6 +178,120 @@
   </si>
   <si>
     <t xml:space="preserve"> Ïê? Âú îéœåãï îå îàšìé?[K]\nÏö... Ïœåîû çàìû.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hi! Isn\'t the weather wonderful?</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P01A/um1201.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Привет! Сегодня чудесная\nпогода, да?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðñéâåó! Òåãïäîÿ œôäåòîàÿ\nðïãïäà, äà?</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P01A/um1301.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The guild\'s Pokémon seem to be\nin a panic or something…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Все Покемоны гильдии в какой-то\nпанике или что-то вроде того...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Âòå Ðïëåíïîú ãéìûäéé â ëàëïê-óï\nðàîéëå éìé œóï-óï âñïäå óïãï…</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P01A/um1310.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P01A/um1313.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P01A/um1316.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I\'ve heard.[K] Your whole guild is\ntrying to capture [CS:N]Grovyle[CR]?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I hope you succeed!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Надеюсь, у вас всё получится!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îàäåýòû, ô âàò âòæ ðïìôœéóòÿ!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я всё слышал.[K] Вся ваша гильдия\nпытается поймать [CS:N]Гровайла[CR]?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ âòæ òìúšàì.[K] Âòÿ âàšà ãéìûäéÿ\nðúóàåóòÿ ðïêíàóû [CS:N]Ãñïâàêìà[CR]?</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P01A/um1401.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P01A/um1601.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> He\'s trying to paralyze the\nplanet by stealing Time Gears, isn\'t he?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> What a horrible thing to do!\nThat [CS:N]Grovyle[CR]\'s horrid!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Он пытается парализовать\nпланету похищая Шестерни Времени, так?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Какой ужасный поступок! Какой\nужасный [CS:N]Гровайл[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ïî ðúóàåóòÿ ðàñàìéèïâàóû\nðìàîåóô ðïöéþàÿ Šåòóåñîé Âñåíåîé, óàë?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ëàëïê ôçàòîúê ðïòóôðïë! Ëàëïê\nôçàòîúê [CS:N]Ãñïâàêì[CR]!</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P01A/um1607.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I think we\'re in safe hands\nwith the great [CS:N]Dusknoir[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I\'m sure he\'ll catch [CS:N]Grovyle[CR]\nfor us!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...Oops. I shouldn\'t have said\nthat so loud.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Who knows? [CS:N]Grovyle[CR] might\neven be listening in on us.[K] One can\'t be\ntoo careful.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я думаю, что с великим\n[CS:N]Даскнуаром[CR] мы в безопасности.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я уверен, что он поймает\n[CS:N]Гровайла[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...Упс. Я не должен был это\nвыкрикивать.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Кто знает? Может быть [CS:N]Гровайл[CR]\nнас подслушивает.[K] Нужно быть осторожнее.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ äôíàý, œóï ò âåìéëéí\n[CS:N]Äàòëîôàñïí[CR] íú â áåèïðàòîïòóé.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ ôâåñåî, œóï ïî ðïêíàåó\n[CS:N]Ãñïâàêìà[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...Ôðò. Ÿ îå äïìçåî áúì üóï\nâúëñéëéâàóû.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ëóï èîàåó? Íïçåó áúóû [CS:N]Ãñïâàêì[CR]\nîàò ðïäòìôšéâàåó.[K] Îôçîï áúóû ïòóïñïçîåå.</t>
   </si>
 </sst>
 </file>
@@ -573,10 +687,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -825,6 +939,179 @@
         <v>52</v>
       </c>
     </row>
+    <row r="16" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="8">
+        <v>182</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="4">
+        <v>163</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+    </row>
+    <row r="20" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" s="4">
+        <v>141</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A21" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" s="6">
+        <v>144</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" s="4">
+        <v>119</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="6"/>
+      <c r="B23" s="6">
+        <v>122</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B24" s="4">
+        <v>91</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B25" s="4">
+        <v>94</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B26" s="4">
+        <v>97</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="B27" s="4">
+        <v>100</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Texts/Город Сокровищ/Все персонажи/Теддиурса.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Теддиурса.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="119">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -292,6 +292,90 @@
   </si>
   <si>
     <t xml:space="preserve"> Ëóï èîàåó? Íïçåó áúóû [CS:N]Ãñïâàêì[CR]\nîàò ðïäòìôšéâàåó.[K] Îôçîï áúóû ïòóïñïçîåå.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> You\'re both back safely!\nThat\'s wonderful news!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Oh, I also heard something from\n[CS:N]Bidoof[CR] earlier!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> He said [CS:N]Grovyle[CR] is actually\ngood...[K] And the great [CS:N]Dusknoir[CR] is the bad guy!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Is that really true?!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SCRIPT/T01P01A/um2102.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Вы оба вернулись! Какая\nчудесная весть!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Это правда?!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ой, мне тут [CS:N]Бидуф[CR] такое сказал!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Âú ïáà âåñîôìéòû! Ëàëàÿ\nœôäåòîàÿ âåòóû!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ïê, íîå óôó [CS:N]Áéäôõ[CR] óàëïå òëàèàì!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Üóï ðñàâäà?!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Он сказал, что [CS:N]Гровайл[CR] на самом\nделе хороший...[K] А [CS:N]Даскнуар[CR] - злодей!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ïî òëàèàì, œóï [CS:N]Ãñïâàêì[CR] îà òàíïí\näåìå öïñïšéê...[K] À [CS:N]Äàòëîôàñ[CR] - èìïäåê!</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P01A/um2107.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I believe what you said!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> After all, it\'s very strange that\ntime hasn\'t started moving again after the\nTime Gears were put back.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I\'m in your corner![K] I hope you\nsucceed!</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P02A/um2203.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я верю всему, что вы говорите!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> В конце-концов, то, что время\nне вернулось в норму после возвращения\nШестерней Времени, подозрительно.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я на вашей стороне![K] Надеюсь,\nу вас всё получится!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ âåñý âòåíô, œóï âú ãïâïñéóå!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Â ëïîøå-ëïîøïâ, óï, œóï âñåíÿ\nîå âåñîôìïòû â îïñíô ðïòìå âïèâñàþåîéÿ\nŠåòóåñîåê Âñåíåîé, ðïäïèñéóåìûîï.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ îà âàšåê òóïñïîå![K] Îàäåýòû,\nô âàò âòæ ðïìôœéóòÿ!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I\'m supporting you too![K]\nDon\'t give up!</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P01A/um2401.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я вас тоже поддерживаю![K]\nНе сдавайтесь!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ âàò óïçå ðïääåñçéâàý![K]\nÎå òäàâàêóåòû!</t>
   </si>
 </sst>
 </file>
@@ -687,10 +771,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1099,17 +1183,144 @@
       </c>
     </row>
     <row r="27" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
-      <c r="B27" s="4">
+      <c r="A27" s="6"/>
+      <c r="B27" s="6">
         <v>100</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="E27" s="7" t="s">
         <v>90</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B28" s="4">
+        <v>63</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B29" s="4">
+        <v>66</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="B30" s="4">
+        <v>69</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="6"/>
+      <c r="B31" s="6">
+        <v>72</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B32" s="4">
+        <v>38</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="42" x14ac:dyDescent="0.3">
+      <c r="B33" s="4">
+        <v>41</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A34" s="6"/>
+      <c r="B34" s="6">
+        <v>44</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A35" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B35" s="4">
+        <v>18</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Все персонажи/Теддиурса.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Теддиурса.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="120">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -376,6 +376,9 @@
   </si>
   <si>
     <t xml:space="preserve"> Ÿ âàò óïçå ðïääåñçéâàý![K]\nÎå òäàâàêóåòû!</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P01A/um2501.ssb</t>
   </si>
 </sst>
 </file>
@@ -771,10 +774,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1323,6 +1326,11 @@
         <v>118</v>
       </c>
     </row>
+    <row r="36" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A36" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
